--- a/data/case1/18/details_14.xlsx
+++ b/data/case1/18/details_14.xlsx
@@ -59,10 +59,10 @@
     <col min="1" max="1" width="2.140625" customWidth="true"/>
     <col min="2" max="2" width="2.140625" customWidth="true"/>
     <col min="3" max="3" width="3.140625" customWidth="true"/>
-    <col min="4" max="4" width="3.140625" customWidth="true"/>
-    <col min="5" max="5" width="3.140625" customWidth="true"/>
+    <col min="4" max="4" width="2.140625" customWidth="true"/>
+    <col min="5" max="5" width="2.140625" customWidth="true"/>
     <col min="6" max="6" width="3.140625" customWidth="true"/>
-    <col min="7" max="7" width="2.140625" customWidth="true"/>
+    <col min="7" max="7" width="3.140625" customWidth="true"/>
     <col min="8" max="8" width="3.140625" customWidth="true"/>
     <col min="9" max="9" width="3.140625" customWidth="true"/>
     <col min="10" max="10" width="3.140625" customWidth="true"/>
@@ -80,40 +80,40 @@
         <v>4</v>
       </c>
       <c r="C1" s="0">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E1" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F1" s="0">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G1" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H1" s="0">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="K1" s="0">
-        <v>0.021000000000000001</v>
+        <v>0.013000000000000001</v>
       </c>
       <c r="L1" s="0">
-        <v>0.023</v>
+        <v>0.0080000000000000002</v>
       </c>
       <c r="M1" s="0">
-        <v>0.085000000000000006</v>
+        <v>0.099000000000000005</v>
       </c>
       <c r="N1" s="0">
-        <v>0.058000000000000003</v>
+        <v>0.060999999999999999</v>
       </c>
     </row>
   </sheetData>
